--- a/data/EmployeesList.xlsx
+++ b/data/EmployeesList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="163">
   <si>
     <t>Anastasiya</t>
   </si>
@@ -496,12 +496,22 @@
   </si>
   <si>
     <t>Carlton</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Marley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -846,7 +856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="O46" sqref="O46"/>
@@ -854,15 +864,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="25" width="6.81640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="2.08984375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.6328125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="22.1796875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="2.08984375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="21.6328125" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="3.54296875" collapsed="false"/>
+    <col min="8" max="25" customWidth="true" style="1" width="6.81640625" collapsed="false"/>
+    <col min="26" max="16384" style="1" width="8.90625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
@@ -4713,6 +4723,83 @@
       </c>
       <c r="Y50" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" t="s">
+        <v>6</v>
+      </c>
+      <c r="P51" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>3</v>
+      </c>
+      <c r="R51" t="s">
+        <v>3</v>
+      </c>
+      <c r="S51" t="s">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s">
+        <v>3</v>
+      </c>
+      <c r="U51" t="s">
+        <v>3</v>
+      </c>
+      <c r="V51" t="s">
+        <v>6</v>
+      </c>
+      <c r="W51" t="s">
+        <v>6</v>
+      </c>
+      <c r="X51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/EmployeesList.xlsx
+++ b/data/EmployeesList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="160">
   <si>
     <t>Anastasiya</t>
   </si>
@@ -496,22 +496,12 @@
   </si>
   <si>
     <t>Carlton</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Marley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,23 +846,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="2.08984375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="18.6328125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="22.1796875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="2.08984375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="21.6328125" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="3.54296875" collapsed="false"/>
-    <col min="8" max="25" customWidth="true" style="1" width="6.81640625" collapsed="false"/>
-    <col min="26" max="16384" style="1" width="8.90625" collapsed="false"/>
+    <col min="1" max="1" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="25" width="6.81640625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
@@ -4723,83 +4713,6 @@
       </c>
       <c r="Y50" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" t="s">
-        <v>3</v>
-      </c>
-      <c r="K51" t="s">
-        <v>3</v>
-      </c>
-      <c r="L51" t="s">
-        <v>3</v>
-      </c>
-      <c r="M51" t="s">
-        <v>6</v>
-      </c>
-      <c r="N51" t="s">
-        <v>6</v>
-      </c>
-      <c r="O51" t="s">
-        <v>6</v>
-      </c>
-      <c r="P51" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>3</v>
-      </c>
-      <c r="R51" t="s">
-        <v>3</v>
-      </c>
-      <c r="S51" t="s">
-        <v>3</v>
-      </c>
-      <c r="T51" t="s">
-        <v>3</v>
-      </c>
-      <c r="U51" t="s">
-        <v>3</v>
-      </c>
-      <c r="V51" t="s">
-        <v>6</v>
-      </c>
-      <c r="W51" t="s">
-        <v>6</v>
-      </c>
-      <c r="X51" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
